--- a/riskmanagement/riskanalysis.xlsx
+++ b/riskmanagement/riskanalysis.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Missing Sprite</t>
   </si>
   <si>
-    <t xml:space="preserve">Developer need a specific sprite to bring their scene to life, which is not in the library of the team.</t>
+    <t xml:space="preserve">Developer needs a specific sprite to bring their scene to life, which is not in the library of the team.</t>
   </si>
   <si>
     <t xml:space="preserve">Search for fitting sprite (e.g. Fivver service)</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">PC-Trouble</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual Computer of a developer has problems</t>
+    <t xml:space="preserve">Individual computer of a developer has problems</t>
   </si>
   <si>
     <t xml:space="preserve">Change to back up system </t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Github down</t>
   </si>
   <si>
-    <t xml:space="preserve">Github is not working anymore and there is no way to commit to the repository.</t>
+    <t xml:space="preserve">GitHub is not working anymore and there is no way to commit to the repository.</t>
   </si>
   <si>
     <t xml:space="preserve">Self host Git instance on own server</t>
@@ -230,8 +230,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="58.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -362,7 +362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -386,7 +386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
